--- a/dandem_export_v1_0_0.xlsx
+++ b/dandem_export_v1_0_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,112 +488,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ReferralFreeChoice</t>
+          <t>NPU</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fritvalgshenvisning modtaget
-</t>
+          <t>Neuropsykologisk undersøgelse (NPU)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>StatusCode</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Patienter der er omvisiteret via fritvalgsordning til primær udredning jf. henvisningstype, da skal datoen for fritvalgshenvisningen oplyses. Fritvalgshenvisning kan gives ved lang ventetid.</t>
+          <t>Er NPU udført i udredningsenhedens regi, uddelegeret derfra eller blevet gennemlæst/vurderet af udredningsenhedens neuropsykologer og fundet velgennemført?
+**Testen skal være udført inden for de seneste 12 mdr.**</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>InformDiagnosis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Denne dato er ekstrem vigtig og der skal gøres en stor indsats for at validere denne dato. Denne dato kobles bl.a. med henvsiningsdato og første kontakt dato i udredningsforløbet identificeret i LPR ved procedurekoden ZZ1500. Herudfra bestemmes ventetid og udredningstid, hvilke er ekstremt vigtige parametre for patient og pårørende og dermed ventidsgarantier regionerne bør leve op til. 
-Datoen er den dato, hvor alle undersøgelser, der er blevet lavet i udredningsforløbet foreligger og er vurderet/beskrevet og dermed kan føre til en konklusiv diagnose på det bedst mulige kliniske grundlag.
-</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>CT_Scan</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>StatusCode</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dato for diagnosesamtale defineres som den dag patienten første gang informeres om en diagnostisk konklusion. Dette er normalt ved en ambulant konsultation. Se eksempler nedenfor. Det skal ses fra patienten synsvinkel: ”Hvornår fik jeg første gang noget at vide om diagnose og evt. behandling.
-Hvis der gives svar per brev (f. eks hvis patienten ikke ønsker at møde op, eller der er aftalt brevsvar) anvendes dato for afgivelse af dette svar.
-Hvis patienten aflyser midt i et udredningsforløb, anvendes den dato hvor patienten afsluttes journalmæssigt.
-Hvis patienten dør under udredningsforløb, anvendes dødsdato.
-Hvis patienten efter den initiale udredning informeres om, at der er depression / depressive symptomer (og evt. sættes i behandling) vil dette være dato for diagnose. Dette også selv om man klinisk kan have en mistanke om en bagvedliggende demenssygdom, men hvor diagnose først kan stilles når depressionen er behandlet.</t>
+          <t>Forelægger der CT-scanning af cerebrum og evt. adgang til  billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ReferralCommunalCoordinator</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Kommunal demenskoordinator henvisning</t>
+          <t>MR_Scan</t>
         </is>
       </c>
     </row>
@@ -610,7 +584,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Der skal svares Ja, hvis patienten er blevet tilbudt henvisning. Både hvis patient/pårørende ønsker dette sat i værk eller hvis de ikke ønsker dette sat i værk.</t>
+          <t>Forelægger der MR-scanning af cerebrum og evt. adgang til  billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -622,141 +596,50 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Referral</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Henvisningstype  / Pt. ønsker ikke udredning.
-Henvisningstypen er afgørende for, hvorledes patienten indgår i indikatorberegningen.</t>
+          <t>NPHAssessment</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>StatusCode</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
-        <is>
-          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>NPHAssessment</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ActivityCode</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
         <is>
           <t>Er der udført normal-tryks-hydrocephalus (NPH)-udredning? Udredningen foretages, hvis man mistænker forhøjet intrakranielt tryk som årsag til kognigitiv deficit.
 Kan i de fleste implementeringer stå på 'nej' som standard.</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Activity</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>MR_Scan</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Forelægger der MR-scanning af cerebrum og evt. adgang til  billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>OfferedDementiaMedication</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Er patienten blevet tilbudt demensmedicin?
 Ved Ja forstås, at der i udredningsforløbet for demens er tilbudt behandling med én af følgende relevante medicintyper, som patienten skal påbegynde behandling med eller allerede er i behandling med følgende relevante medicintyper:
@@ -767,94 +650,211 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ReferralCommunalCoordinator</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Kommunal demenskoordinator henvisning</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Der skal svares Ja, hvis patienten er blevet tilbudt henvisning. Både hvis patient/pårørende ønsker dette sat i værk eller hvis de ikke ønsker dette sat i værk.</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Referral</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Henvisningstype  / Pt. ønsker ikke udredning.
+Henvisningstypen er afgørende for, hvorledes patienten indgår i indikatorberegningen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
+        </is>
+      </c>
+    </row>
     <row r="16">
       <c r="D16" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NPU</t>
+          <t>ReferralFreeChoice</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Neuropsykologisk undersøgelse (NPU)</t>
+          <t xml:space="preserve">Fritvalgshenvisning modtaget
+</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="D18" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Er NPU udført i udredningsenhedens regi, uddelegeret derfra eller blevet gennemlæst/vurderet af udredningsenhedens neuropsykologer og fundet velgennemført?
-**Testen skal være udført inden for de seneste 12 mdr.**</t>
+          <t>Patienter der er omvisiteret via fritvalgsordning til primær udredning jf. henvisningstype, da skal datoen for fritvalgshenvisningen oplyses. Fritvalgshenvisning kan gives ved lang ventetid.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CT_Scan</t>
+          <t>InformDiagnosis</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denne dato er ekstrem vigtig og der skal gøres en stor indsats for at validere denne dato. Denne dato kobles bl.a. med henvsiningsdato og første kontakt dato i udredningsforløbet identificeret i LPR ved procedurekoden ZZ1500. Herudfra bestemmes ventetid og udredningstid, hvilke er ekstremt vigtige parametre for patient og pårørende og dermed ventidsgarantier regionerne bør leve op til. 
+Datoen er den dato, hvor alle undersøgelser, der er blevet lavet i udredningsforløbet foreligger og er vurderet/beskrevet og dermed kan føre til en konklusiv diagnose på det bedst mulige kliniske grundlag.
+</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="D20" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Forelægger der CT-scanning af cerebrum og evt. adgang til  billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.</t>
+          <t>Dato for diagnosesamtale defineres som den dag patienten første gang informeres om en diagnostisk konklusion. Dette er normalt ved en ambulant konsultation. Se eksempler nedenfor. Det skal ses fra patienten synsvinkel: ”Hvornår fik jeg første gang noget at vide om diagnose og evt. behandling.
+Hvis der gives svar per brev (f. eks hvis patienten ikke ønsker at møde op, eller der er aftalt brevsvar) anvendes dato for afgivelse af dette svar.
+Hvis patienten aflyser midt i et udredningsforløb, anvendes den dato hvor patienten afsluttes journalmæssigt.
+Hvis patienten dør under udredningsforløb, anvendes dødsdato.
+Hvis patienten efter den initiale udredning informeres om, at der er depression / depressive symptomer (og evt. sættes i behandling) vil dette være dato for diagnose. Dette også selv om man klinisk kan have en mistanke om en bagvedliggende demenssygdom, men hvor diagnose først kan stilles når depressionen er behandlet.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -866,374 +866,295 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>MMSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Mini mental status examination (MMSE) er uden sammenligning det hyppigst anvendte kognitive screeningsinstrument i ind- og udland og indgår som rutineundersøgelse ved demensudredning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MCE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multicultural Cognitive Examination (MCE) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. MCE giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx RUDAS alene og udgør et velegnet supplement ved tværkulturel demensudredning.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Trinvold_DSQIID</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Trindvold/DSQIID er instrumenter der anvendes til vurdering af patienter med samtidig Downs syndrom eller anden mental retardering og mistanke om erhvervet demenssygdom.
+Dette instrument anvendes, når det ikke er muligt at anvende de sædvanlige instrumenter grundet mental retardering m.fl.
+**I tilfælde af denne er positiv, er der ikke behov for at udføre de andre tests. (LISTE AF TESTS)**</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MoCa</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Montreal Cognitive Assessment (MoCA) er udviklet med henblik på at identificere mild cognitive impairment (let kognitiv svækkelse; MCI).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CAMcog</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambridge Cognitive Examination (CAMCOG) er udviklet med henblik på at bidrage til at diagnosticere demens i et tidligt stadium og giver væsentligt flere oplysninger end fx MMSE. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DAD</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Disability Assessment for Dementia (DAD) er udviklet af en gruppe canadiske ergo- og fysioterapeuter med henblik på vurdering af praktisk funktionsevne hos hjemmeboende patienter med Alzheimers sygdom. Instrumentet er følsomt over for ændringer i funktionsevne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>FAQ_IADL</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t xml:space="preserve">Functional Activities Questionnaire (FAQ IADL) er udviklet med henblik på – via oplysninger fra pårørende – at opnå en hurtig og systematisk vurdering af patientens praktiske funktionsevne i hverdagen.
 </t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>DAD</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Disability Assessment for Dementia (DAD) er udviklet af en gruppe canadiske ergo- og fysioterapeuter med henblik på vurdering af praktisk funktionsevne hos hjemmeboende patienter med Alzheimers sygdom. Instrumentet er følsomt over for ændringer i funktionsevne.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>BASIC</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Brief Assessment of Impaired Cognition (BASIC) er udviklet til rettidig identifikation af kognitiv svækkelse og demens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>CAMcog</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cambridge Cognitive Examination (CAMCOG) er udviklet med henblik på at bidrage til at diagnosticere demens i et tidligt stadium og giver væsentligt flere oplysninger end fx MMSE. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MCE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multicultural Cognitive Examination (MCE) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. MCE giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx RUDAS alene og udgør et velegnet supplement ved tværkulturel demensudredning.  
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>RUDAS</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Rowland Universal Dementia Assessment Scale (RUDAS) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MoCa</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Montreal Cognitive Assessment (MoCA) er udviklet med henblik på at identificere mild cognitive impairment (let kognitiv svækkelse; MCI).
-</t>
-        </is>
-      </c>
-    </row>
     <row r="34">
       <c r="D34" t="inlineStr">
         <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Var der en pårørende / professionel omsorgsperson involveret i vurderingen af FAQ_ADL?
+Da demente ikke altid selv har indsigt i eget funktionsniveau, da inddrages pårørende eller andre, som kender patienten indgående. Der markeres ”Ja” hvis der har været en pårørende og/eller professionel omsorgsperson (der kender patienten til at kunne svare på FAQ_ADL vurdering) ved forundersøgelse.</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="inlineStr">
+        <is>
           <t>ResultValue</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ACE</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Addenbrooke’s Cognitive Examination (ACE) giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx MMSE alene og udgør et velegnet supplement ved demensudredning.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CognitiveImpairment</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Habituel kognitiv funktion: Test inden for alders- og uddannelseskorrigeret normalområde og præmorbid funktion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="inlineStr">
         <is>
           <t>ResultValue</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>ADSC_ADL</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Alzheimer's Disease Cooperative Study(ADCS)-ADL er udviklet med henblik på vurdering af praktisk funktionsevne hos patienter med Alzheimers sygdom.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>MMSE</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Mini mental status examination (MMSE) er uden sammenligning det hyppigst anvendte kognitive screeningsinstrument i ind- og udland og indgår som rutineundersøgelse ved demensudredning.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>CognitiveImpairment</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Habituel kognitiv funktion: Test inden for alders- og uddannelseskorrigeret normalområde og præmorbid funktion.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>*Kognitiv svækkelse, ikke dement*
 Kognitiv svækkelse i et eller flere domæner, men ikke dement (normal ADL). Det er ikke  afgørende om patienten har svigt indenfor ét eller flere kognitive domæner, men om patienten trods svigt opretholder et normalt dagligt funktionsniveau. Den kognitive svækkelse kan være på såvel organisk som non-organisk baggrund.
@@ -1247,24 +1168,185 @@
 NIA-AA kriterier for demens skal være opfyldte og ADL påvirkning er svær jf. ICD-10 kriterier</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "kognitiv_intakt" | "kognitiv_svaekkelse" | "demens__let__grad" | "demens__moderat__grad" | "demens_svaer_grad" | </t>
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ACE</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Addenbrooke’s Cognitive Examination (ACE) giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx MMSE alene og udgør et velegnet supplement ved demensudredning.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RUDAS</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Rowland Universal Dementia Assessment Scale (RUDAS) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ADSC_ADL</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Alzheimer's Disease Cooperative Study(ADCS)-ADL er udviklet med henblik på vurdering af praktisk funktionsevne hos patienter med Alzheimers sygdom.</t>
+        </is>
+      </c>
+    </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Var der en pårørende / professionel omsorgsperson involveret i vurderingen af ADSC_ADL?
+Da demente ikke altid selv har indsigt i eget funktionsniveau, da inddrages pårørende eller andre, som kender patienten indgående. Der markeres ”Ja” hvis der har været en pårørende og/eller professionel omsorgsperson (der kender patienten til at kunne svare på ADSC_ADL vurdering) ved forundersøgelse.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>BASIC</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Brief Assessment of Impaired Cognition (BASIC) er udviklet til rettidig identifikation af kognitiv svækkelse og demens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>Diagnosis</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>EtiologicalDiagnosis</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Hvis Graden af kognitiv påvirkning ikke er svarende til Habituel kognitiv funktion, da skal Ætiologisk diagnose angives, hvis det er muligt. 
 Den sygdomsspecifikke diagnose, der registres skal være den anførte diagnose i journalen og som er kommunikeret til patient/pårørende. Ved flere konkurrerende ætiologier indberettes den ætiologi, der bedst beskriver den dominerende kliniske tilstand. 
@@ -1316,18 +1398,18 @@
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="D44" t="inlineStr">
+    <row r="48">
+      <c r="D48" t="inlineStr">
         <is>
           <t>DiagnosisCode</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden__ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | </t>
         </is>

--- a/dandem_export_v1_0_0.xlsx
+++ b/dandem_export_v1_0_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,24 +488,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Diagnosis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NPU</t>
+          <t>EtiologicalDiagnosis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Neuropsykologisk undersøgelse (NPU)</t>
+          <t>Hvis Graden af kognitiv påvirkning ikke er svarende til Habituel kognitiv funktion, da skal Ætiologisk diagnose angives, hvis det er muligt. 
+Den sygdomsspecifikke diagnose, der registres skal være den anførte diagnose i journalen og som er kommunikeret til patient/pårørende. Ved flere konkurrerende ætiologier indberettes den ætiologi, der bedst beskriver den dominerende kliniske tilstand. 
+Siden 2015 har de diagnostiske kriterier for demens været diskuteret, men der er stadig ikke konsensus om, hvilke diagnostiske kriterier, der skal anvendes på tværs af landet. Trial Nation anbefaler følgende diagnosekriterier:</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>DiagnosisCode</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -515,430 +517,198 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Er NPU udført i udredningsenhedens regi, uddelegeret derfra eller blevet gennemlæst/vurderet af udredningsenhedens neuropsykologer og fundet velgennemført?
-**Testen skal være udført inden for de seneste 12 mdr.**</t>
+          <t>*Demens*
+National Institute on Aging and the Alzheimer's Association (NIA-AA) workgroup kriterier (McKhann GM et al. 2011)
+Nogle udredningsenheder har også erfaring med anvende NIA-AA 2018 AD-kriterierne
+*Alzheimers sygdom*
+En række demensudredningsenheder samarbejder i ADEX alliancen om harmonisering: 
+http://www.videnscenterfordemens.dk/forskning/adex/adex-alliancen/ og er 2016 enige om at  anvende følgende diagnosekriterier: National Institute on Aging and the Alzheimer's Association (NIA-AA) workgroup kriterier (McKhann GM et al. 2011)
+Nogle udredningsenheder har også erfaring med anvende NIA-AA 2018 AD-kriterierne
+*Lewy Body sygdom*
+Kriterier fra fourth consensus report of the DLB Consortium (McKeith IG et al. 2017)
+Parkinson sygdom
+*Cerebrovaskulær sygdom*
+The International Society for Vascular Behavioral and Cognitive Disorders (VAS-COG)-kriterier 
+(Sachdev P et al. 2014)
+*Mixed (Alzheimer + Cerebrovaskulær)*
+Når de kognitive symptomer er forklaret ved Alzheimers sygdom såvel som cerebrovaskulær sygdom.
+*Frontotemporal demens*
+Revised diagnostic criteria for the behavioral variant of frontotemporal demens (Rascovsky K et al. 2011) Classification of primary progressive aphasia and its variants (Gorno-Tempini M et al. 2011)
+*Atypisk Parkinson (MSA, CBS, PSP)*
+Normaltryks hydrocephalus (NPH)
+*Huntingtons sygdom*
+Diagnostic Criteria for Huntington's Disease based on Natural History (Reilmann R et al. 2014)
+*Alkohol*
+For at anvende Alkohol som den primære årsag til kognitivt deficit, så skal det være den  primære årsag og/eller der er diagnosticeret Wernicke-Korsakoff. Hvis der samtidig er verificeret en neuro-degenerativ lidelse (f. eks Alzheimers sygdom), så skal denne vælges som 
+primære årsag, ikke alkohol.
+*Anden specifik neuro-degenerativ sygdom*
+Kan f.eks. være spinocerebellare ataksier, ALS-FTD og lign.
+*Anden ikke neuro-degenerativ sygdom*
+Kan f.eks. være følger efter traume eller intra-kraniel tumor.
+*Psykiatrisk sygdom*
+Psykiatrisk genese til kognitive deficit registres selvstændigt, når det er den eneste/primære årsag. Hvis der er verificeret en neuro-degenerativ lidelse (f.eks. Alzheimers sygdom), så skal denne vælges som den primære årsag og ikke psykiatrisk sygdom.
+*Uafklaret ætiologi*
+Hvis der ikke kan stilles en specifik diagnose.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden__ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CT_Scan</t>
+          <t>CAMcog</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambridge Cognitive Examination (CAMCOG) er udviklet med henblik på at bidrage til at diagnosticere demens i et tidligt stadium og giver væsentligt flere oplysninger end fx MMSE. 
+</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Forelægger der CT-scanning af cerebrum og evt. adgang til  billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MR_Scan</t>
+          <t>MCE</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multicultural Cognitive Examination (MCE) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. MCE giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx RUDAS alene og udgør et velegnet supplement ved tværkulturel demensudredning.  
+</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Forelægger der MR-scanning af cerebrum og evt. adgang til  billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NPHAssessment</t>
+          <t>FAQ_IADL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Functional Activities Questionnaire (FAQ IADL) er udviklet med henblik på – via oplysninger fra pårørende – at opnå en hurtig og systematisk vurdering af patientens praktiske funktionsevne i hverdagen.
+</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="D9" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Er der udført normal-tryks-hydrocephalus (NPH)-udredning? Udredningen foretages, hvis man mistænker forhøjet intrakranielt tryk som årsag til kognigitiv deficit.
-Kan i de fleste implementeringer stå på 'nej' som standard.</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OfferedDementiaMedication</t>
+          <t>DAD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Er patienten blevet tilbudt demensmedicin?
-Ved Ja forstås, at der i udredningsforløbet for demens er tilbudt behandling med én af følgende relevante medicintyper, som patienten skal påbegynde behandling med eller allerede er i behandling med følgende relevante medicintyper:
-- Aricept: Donepezil
-- Exelon: Rivastigmin
-- Reminyl: Galantamin
-- Ebixa: Memantin</t>
+          <t xml:space="preserve">The Disability Assessment for Dementia (DAD) er udviklet af en gruppe canadiske ergo- og fysioterapeuter med henblik på vurdering af praktisk funktionsevne hos hjemmeboende patienter med Alzheimers sygdom. Instrumentet er følsomt over for ændringer i funktionsevne.
+</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="D11" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ReferralCommunalCoordinator</t>
+          <t>Trinvold_DSQIID</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
-        <is>
-          <t>Kommunal demenskoordinator henvisning</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Der skal svares Ja, hvis patienten er blevet tilbudt henvisning. Både hvis patient/pårørende ønsker dette sat i værk eller hvis de ikke ønsker dette sat i værk.</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Referral</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Henvisningstype  / Pt. ønsker ikke udredning.
-Henvisningstypen er afgørende for, hvorledes patienten indgår i indikatorberegningen.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ReferralFreeChoice</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fritvalgshenvisning modtaget
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Patienter der er omvisiteret via fritvalgsordning til primær udredning jf. henvisningstype, da skal datoen for fritvalgshenvisningen oplyses. Fritvalgshenvisning kan gives ved lang ventetid.</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>InformDiagnosis</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Denne dato er ekstrem vigtig og der skal gøres en stor indsats for at validere denne dato. Denne dato kobles bl.a. med henvsiningsdato og første kontakt dato i udredningsforløbet identificeret i LPR ved procedurekoden ZZ1500. Herudfra bestemmes ventetid og udredningstid, hvilke er ekstremt vigtige parametre for patient og pårørende og dermed ventidsgarantier regionerne bør leve op til. 
-Datoen er den dato, hvor alle undersøgelser, der er blevet lavet i udredningsforløbet foreligger og er vurderet/beskrevet og dermed kan føre til en konklusiv diagnose på det bedst mulige kliniske grundlag.
-</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Dato for diagnosesamtale defineres som den dag patienten første gang informeres om en diagnostisk konklusion. Dette er normalt ved en ambulant konsultation. Se eksempler nedenfor. Det skal ses fra patienten synsvinkel: ”Hvornår fik jeg første gang noget at vide om diagnose og evt. behandling.
-Hvis der gives svar per brev (f. eks hvis patienten ikke ønsker at møde op, eller der er aftalt brevsvar) anvendes dato for afgivelse af dette svar.
-Hvis patienten aflyser midt i et udredningsforløb, anvendes den dato hvor patienten afsluttes journalmæssigt.
-Hvis patienten dør under udredningsforløb, anvendes dødsdato.
-Hvis patienten efter den initiale udredning informeres om, at der er depression / depressive symptomer (og evt. sættes i behandling) vil dette være dato for diagnose. Dette også selv om man klinisk kan have en mistanke om en bagvedliggende demenssygdom, men hvor diagnose først kan stilles når depressionen er behandlet.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MMSE</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Mini mental status examination (MMSE) er uden sammenligning det hyppigst anvendte kognitive screeningsinstrument i ind- og udland og indgår som rutineundersøgelse ved demensudredning.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>MCE</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multicultural Cognitive Examination (MCE) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. MCE giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx RUDAS alene og udgør et velegnet supplement ved tværkulturel demensudredning.  
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Trinvold_DSQIID</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>Trindvold/DSQIID er instrumenter der anvendes til vurdering af patienter med samtidig Downs syndrom eller anden mental retardering og mistanke om erhvervet demenssygdom.
 Dette instrument anvendes, når det ikke er muligt at anvende de sædvanlige instrumenter grundet mental retardering m.fl.
@@ -946,215 +716,310 @@
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="D26" t="inlineStr">
+    <row r="13">
+      <c r="D13" t="inlineStr">
         <is>
           <t>StatusCode</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MMSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Mini mental status examination (MMSE) er uden sammenligning det hyppigst anvendte kognitive screeningsinstrument i ind- og udland og indgår som rutineundersøgelse ved demensudredning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SupportPersonPresent</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Var der en pårørende / professionel omsorgsperson involveret i vurderingerne?
+Da demente ikke altid selv har indsigt i eget funktionsniveau, da inddrages pårørende eller andre, som kender patienten indgående. Der markeres ”Ja” hvis der har været en pårørende og/eller professionel omsorgsperson (der kender patienten til at kunne svare på vurderingen) ved forundersøgelse.
+Denne variabel er dækkende for alle de nævnte vurderinger, og det antages at hvis der har været en pårørende til stede ved en vurdering har der været en pårørende til stede ved alle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Der skal svares Ja, hvis patienten er blevet tilbudt henvisning. Både hvis patient/pårørende ønsker dette sat i værk eller hvis de ikke ønsker dette sat i værk.</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>RUDAS</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>The Rowland Universal Dementia Assessment Scale (RUDAS) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. 
+**Hvis denne test er positiv, er der ikke behov for at udføre yderligere tests. Det anbefales at implementere denne først i integrationer til webservicen.**</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>**Hvis denne test er positiv, er der ikke behov for at udføre yderligere tests. Det anbefales at implementere denne først i integrationer til webservicen.**</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>MoCa</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t xml:space="preserve">The Montreal Cognitive Assessment (MoCA) er udviklet med henblik på at identificere mild cognitive impairment (let kognitiv svækkelse; MCI).
 </t>
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ACE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Addenbrooke’s Cognitive Examination (ACE) giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx MMSE alene og udgør et velegnet supplement ved demensudredning.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ADSC_ADL</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Alzheimer's Disease Cooperative Study(ADCS)-ADL er udviklet med henblik på vurdering af praktisk funktionsevne hos patienter med Alzheimers sygdom.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>BASIC</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Brief Assessment of Impaired Cognition (BASIC) er udviklet til rettidig identifikation af kognitiv svækkelse og demens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
+        </is>
+      </c>
+    </row>
     <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CognitiveImpairment</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Habituel kognitiv funktion: Test inden for alders- og uddannelseskorrigeret normalområde og præmorbid funktion.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CAMcog</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cambridge Cognitive Examination (CAMCOG) er udviklet med henblik på at bidrage til at diagnosticere demens i et tidligt stadium og giver væsentligt flere oplysninger end fx MMSE. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>DAD</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Disability Assessment for Dementia (DAD) er udviklet af en gruppe canadiske ergo- og fysioterapeuter med henblik på vurdering af praktisk funktionsevne hos hjemmeboende patienter med Alzheimers sygdom. Instrumentet er følsomt over for ændringer i funktionsevne.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>FAQ_IADL</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Functional Activities Questionnaire (FAQ IADL) er udviklet med henblik på – via oplysninger fra pårørende – at opnå en hurtig og systematisk vurdering af patientens praktiske funktionsevne i hverdagen.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Var der en pårørende / professionel omsorgsperson involveret i vurderingen af FAQ_ADL?
-Da demente ikke altid selv har indsigt i eget funktionsniveau, da inddrages pårørende eller andre, som kender patienten indgående. Der markeres ”Ja” hvis der har været en pårørende og/eller professionel omsorgsperson (der kender patienten til at kunne svare på FAQ_ADL vurdering) ved forundersøgelse.</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>CognitiveImpairment</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Habituel kognitiv funktion: Test inden for alders- og uddannelseskorrigeret normalområde og præmorbid funktion.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>*Kognitiv svækkelse, ikke dement*
 Kognitiv svækkelse i et eller flere domæner, men ikke dement (normal ADL). Det er ikke  afgørende om patienten har svigt indenfor ét eller flere kognitive domæner, men om patienten trods svigt opretholder et normalt dagligt funktionsniveau. Den kognitive svækkelse kan være på såvel organisk som non-organisk baggrund.
@@ -1168,153 +1033,338 @@
 NIA-AA kriterier for demens skal være opfyldte og ADL påvirkning er svær jf. ICD-10 kriterier</t>
         </is>
       </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "kognitiv_intakt" | "kognitiv_svaekkelse" | "demens__let__grad" | "demens__moderat__grad" | "demens_svaer_grad" | </t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CT_Scan</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Forelægger der CT-scanning af cerebrum og evt. adgang til  billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NPU</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Neuropsykologisk undersøgelse (NPU)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Er NPU udført i udredningsenhedens regi, uddelegeret derfra eller blevet gennemlæst/vurderet af udredningsenhedens neuropsykologer og fundet velgennemført?
+**Testen skal være udført inden for de seneste 12 mdr.**</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>NPHAssessment</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Dette er kun relevant for:
+- Rigshospitalet, Blegdamsvej (SOR: 253121000016002)
+- Aalborg UH, Demensenheden (SOR: 911061000016003)
+- Aalborg UH, Neurologisk (SOR: 275991000016001)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Er der udført normal-tryks-hydrocephalus (NPH)-udredning? Udredningen foretages, hvis man mistænker forhøjet intrakranielt tryk som årsag til kognigitiv deficit.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MR_Scan</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Forelægger der MR-scanning af cerebrum og evt. adgang til  billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "kognitiv_intakt" | "kognitiv_svaekkelse" | "demens__let__grad" | "demens__moderat__grad" | "demens_svaer_grad" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ACE</t>
+          <t>InformDiagnosis</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Addenbrooke’s Cognitive Examination (ACE) giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx MMSE alene og udgør et velegnet supplement ved demensudredning.
+          <t xml:space="preserve">Denne dato er ekstrem vigtig og der skal gøres en stor indsats for at validere denne dato. Denne dato kobles bl.a. med henvsiningsdato og første kontakt dato i udredningsforløbet identificeret i LPR ved procedurekoden ZZ1500. Herudfra bestemmes ventetid og udredningstid, hvilke er ekstremt vigtige parametre for patient og pårørende og dermed ventidsgarantier regionerne bør leve op til. 
+Datoen er den dato, hvor alle undersøgelser, der er blevet lavet i udredningsforløbet foreligger og er vurderet/beskrevet og dermed kan føre til en konklusiv diagnose på det bedst mulige kliniske grundlag.
 </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="D39" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Dato for diagnosesamtale defineres som den dag patienten første gang informeres om en diagnostisk konklusion. Dette er normalt ved en ambulant konsultation. Se eksempler nedenfor. Det skal ses fra patienten synsvinkel: ”Hvornår fik jeg første gang noget at vide om diagnose og evt. behandling.
+Hvis der gives svar per brev (f. eks hvis patienten ikke ønsker at møde op, eller der er aftalt brevsvar) anvendes dato for afgivelse af dette svar.
+Hvis patienten aflyser midt i et udredningsforløb, anvendes den dato hvor patienten afsluttes journalmæssigt.
+Hvis patienten dør under udredningsforløb, anvendes dødsdato.
+Hvis patienten efter den initiale udredning informeres om, at der er depression / depressive symptomer (og evt. sættes i behandling) vil dette være dato for diagnose. Dette også selv om man klinisk kan have en mistanke om en bagvedliggende demenssygdom, men hvor diagnose først kan stilles når depressionen er behandlet.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RUDAS</t>
+          <t>ReferralCommunalCoordinator</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Rowland Universal Dementia Assessment Scale (RUDAS) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. 
-</t>
+          <t>Kommunal demenskoordinator henvisning</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="D41" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>StatusCode</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Der skal svares Ja, hvis patienten er blevet tilbudt henvisning. Både hvis patient/pårørende ønsker dette sat i værk eller hvis de ikke ønsker dette sat i værk.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ADSC_ADL</t>
+          <t>ReferralFreeChoice</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Alzheimer's Disease Cooperative Study(ADCS)-ADL er udviklet med henblik på vurdering af praktisk funktionsevne hos patienter med Alzheimers sygdom.</t>
+          <t xml:space="preserve">Fritvalgshenvisning modtaget
+</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="D43" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Var der en pårørende / professionel omsorgsperson involveret i vurderingen af ADSC_ADL?
-Da demente ikke altid selv har indsigt i eget funktionsniveau, da inddrages pårørende eller andre, som kender patienten indgående. Der markeres ”Ja” hvis der har været en pårørende og/eller professionel omsorgsperson (der kender patienten til at kunne svare på ADSC_ADL vurdering) ved forundersøgelse.</t>
+          <t>Patienter der er omvisiteret via fritvalgsordning til primær udredning jf. henvisningstype, da skal datoen for fritvalgshenvisningen oplyses. Fritvalgshenvisning kan gives ved lang ventetid.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Referral</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Henvisningstype  / Pt. ønsker ikke udredning.
+Henvisningstypen er afgørende for, hvorledes patienten indgår i indikatorberegningen.</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>BASIC</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Brief Assessment of Impaired Cognition (BASIC) er udviklet til rettidig identifikation af kognitiv svækkelse og demens.</t>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -1326,92 +1376,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Diagnosis</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>EtiologicalDiagnosis</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Hvis Graden af kognitiv påvirkning ikke er svarende til Habituel kognitiv funktion, da skal Ætiologisk diagnose angives, hvis det er muligt. 
-Den sygdomsspecifikke diagnose, der registres skal være den anførte diagnose i journalen og som er kommunikeret til patient/pårørende. Ved flere konkurrerende ætiologier indberettes den ætiologi, der bedst beskriver den dominerende kliniske tilstand. 
-Siden 2015 har de diagnostiske kriterier for demens været diskuteret, men der er stadig ikke 
-konsensus om, hvilke diagnostiske kriterier, der skal anvendes på tværs af landet. Trial Nation 
-anbefaler følgende diagnosekriterier:
-Demens
-National Institute on Aging and the Alzheimer's Association (NIA-AA) workgroup kriterier (McKhann GM et al. 2011)
-Nogle udredningsenheder har også erfaring med anvende NIA-AA 2018 AD-kriterierne
-Alzheimers sygdom
-En række demensudredningsenheder samarbejder i ADEX alliancen om harmonisering: 
-http://www.videnscenterfordemens.dk/forskning/adex/adex-alliancen/ og er 2016 enige om at 
-anvende følgende diagnosekriterier:
-National Institute on Aging and the Alzheimer's Association (NIA-AA) workgroup kriterier
-(McKhann GM et al. 2011)
-Nogle udredningsenheder har også erfaring med anvende NIA-AA 2018 AD-kriterierne
-Lewy Body sygdom: 
-Kriterier fra fourth consensus report of the DLB Consortium (McKeith IG et al. 2017)
-Parkinson sygdom
-Cerebrovaskulær sygdom:
-The International Society for Vascular Behavioral and Cognitive Disorders (VAS-COG)-kriterier 
-(Sachdev P et al. 2014)
-Mixed (Alzheimer + Cerebrovaskulær):
-Når de kognitive symptomer er forklaret ved Alzheimers sygdom såvel som cerebrovaskulær 
-sygdom.
-Frontotemporal demens:
-Revised diagnostic criteria for the behavioral variant of frontotemporal demens (Rascovsky K 
-et al. 2011)
-Classification of primary progressive aphasia and its variants (Gorno-Tempini M et al. 2011)
-Atypisk Parkinson (MSA, CBS, PSP)
-Normaltryks hydrocephalus (NPH)
-Huntingtons sygdom
-Diagnostic Criteria for Huntington's Disease based on Natural History (Reilmann R et al. 2014)
-Alkohol:
-For at anvende Alkohol som den primære årsag til kognitivt deficit, så skal det være den 
-primære årsag og/eller der er diagnosticeret Wernicke-Korsakoff. Hvis der samtidig er 
-verificeret en neuro-degenerativ lidelse (f. eks Alzheimers sygdom), så skal denne vælges som 
-primære årsag, ikke alkohol.
-Anden specifik neuro-degenerativ sygdom:
-Kan f.eks. være spinocerebellare ataksier, ALS-FTD og lign.
-Anden ikke neuro-degenerativ sygdom:
-Kan f.eks. være følger efter traume eller intra-kraniel tumor.
-Psykiatrisk sygdom:
-Psykiatrisk genese til kognitive deficit registres selvstændigt, når det er den eneste/primære 
-årsag. Hvis der er verificeret en neuro-degenerativ lidelse (f.eks. Alzheimers sygdom), så skal 
-denne vælges som den primære årsag og ikke psykiatrisk sygdom.
-Uafklaret ætiologi:
-Hvis der ikke kan stilles en specifik diagnose.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>DiagnosisCode</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden__ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
         </is>
       </c>
     </row>

--- a/dandem_export_v1_0_0.xlsx
+++ b/dandem_export_v1_0_0.xlsx
@@ -488,88 +488,112 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MoCa</t>
+          <t>InformDiagnosis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Montreal Cognitive Assessment (MoCA) er udviklet med henblik på at identificere mild cognitive impairment (let kognitiv svækkelse; MCI).
+          <t xml:space="preserve">Denne dato er ekstrem vigtig og der skal gøres en stor indsats for at validere denne dato. Denne dato kobles bl.a. med henvsiningsdato og første kontakt dato i udredningsforløbet identificeret i LPR ved procedurekoden ZZ1500. Herudfra bestemmes ventetid og udredningstid, hvilke er ekstremt vigtige parametre for patient og pårørende og dermed ventidsgarantier regionerne bør leve op til. 
+Datoen er den dato, hvor alle undersøgelser, der er blevet lavet i udredningsforløbet foreligger og er vurderet/beskrevet og dermed kan føre til en konklusiv diagnose på det bedst mulige kliniske grundlag.
 </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Dato for diagnosesamtale defineres som den dag patienten første gang informeres om en diagnostisk konklusion. Dette er normalt ved en ambulant konsultation. Se eksempler nedenfor. Det skal ses fra patienten synsvinkel: ”Hvornår fik jeg første gang noget at vide om diagnose og evt. behandling.
+Hvis der gives svar per brev (f. eks hvis patienten ikke ønsker at møde op, eller der er aftalt brevsvar) anvendes dato for afgivelse af dette svar.
+Hvis patienten aflyser midt i et udredningsforløb, anvendes den dato hvor patienten afsluttes journalmæssigt.
+Hvis patienten dør under udredningsforløb, anvendes dødsdato.
+Hvis patienten efter den initiale udredning informeres om, at der er depression / depressive symptomer (og evt. sættes i behandling) vil dette være dato for diagnose. Dette også selv om man klinisk kan have en mistanke om en bagvedliggende demenssygdom, men hvor diagnose først kan stilles når depressionen er behandlet.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ACE</t>
+          <t>ReferralCommunalCoordinator</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Addenbrooke’s Cognitive Examination (ACE) giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx MMSE alene og udgør et velegnet supplement ved demensudredning.
-</t>
+          <t>Kommunal demenskoordinator henvisning</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>StatusCode</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Der skal svares Ja, hvis patienten er blevet tilbudt henvisning. Både hvis patient/pårørende ønsker dette sat i værk eller hvis de ikke ønsker dette sat i værk.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MCE</t>
+          <t>Referral</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multicultural Cognitive Examination (MCE) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. MCE giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx RUDAS alene og udgør et velegnet supplement ved tværkulturel demensudredning.  
-</t>
+          <t>Henvisningstype  / Pt. ønsker ikke udredning.
+Henvisningstypen er afgørende for, hvorledes patienten indgår i indikatorberegningen.</t>
         </is>
       </c>
     </row>
@@ -581,83 +605,146 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ReferralFreeChoice</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fritvalgshenvisning modtaget
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Patienter der er omvisiteret via fritvalgsordning til primær udredning jf. henvisningstype, da skal datoen for fritvalgshenvisningen oplyses. Fritvalgshenvisning kan gives ved lang ventetid.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FAQ_IADL</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Functional Activities Questionnaire (FAQ IADL) er udviklet med henblik på – via oplysninger fra pårørende – at opnå en hurtig og systematisk vurdering af patientens praktiske funktionsevne i hverdagen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ADSC_ADL</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Alzheimer's Disease Cooperative Study(ADCS)-ADL er udviklet med henblik på vurdering af praktisk funktionsevne hos patienter med Alzheimers sygdom.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>CognitiveImpairment</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Habituel kognitiv funktion: Test inden for alders- og uddannelseskorrigeret normalområde og præmorbid funktion.</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="14">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>*Kognitiv svækkelse, ikke dement*
 Kognitiv svækkelse i et eller flere domæner, men ikke dement (normal ADL). Det er ikke  afgørende om patienten har svigt indenfor ét eller flere kognitive domæner, men om patienten trods svigt opretholder et normalt dagligt funktionsniveau. Den kognitive svækkelse kan være på såvel organisk som non-organisk baggrund.
@@ -671,29 +758,313 @@
 NIA-AA kriterier for demens skal være opfyldte og ADL påvirkning er svær jf. ICD-10 kriterier</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "kognitiv_intakt" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RUDAS</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The Rowland Universal Dementia Assessment Scale (RUDAS) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. 
+**Hvis denne test er udført, er der ikke behov for at udføre yderligere tests. Det anbefales derfor at implementere denne først i integrationer til webservicen.**</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>**Hvis denne test er udført, er der ikke behov for at udføre yderligere tests. Det anbefales derfor at implementere denne først i integrationer til webservicen.**</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Trinvold_DSQIID</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Trindvold/DSQIID er instrumenter der anvendes til vurdering af patienter med samtidig Downs syndrom eller anden mental retardering og mistanke om erhvervet demenssygdom.
+Dette instrument anvendes, når det ikke er muligt at anvende de sædvanlige instrumenter grundet mental retardering m.fl.
+**I tilfælde af denne er positiv, er der ikke behov for at udføre de andre tests: MMSE, ACE, BASIC, CAMcog, MoCa, MCE, RUDAS, FAQ_IADL, DAD, ADSC_ADL, CognitiveImpairment**</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MMSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Mini mental status examination (MMSE) er uden sammenligning det hyppigst anvendte kognitive screeningsinstrument i ind- og udland og indgår som rutineundersøgelse ved demensudredning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MoCa</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Montreal Cognitive Assessment (MoCA) er udviklet med henblik på at identificere mild cognitive impairment (let kognitiv svækkelse; MCI).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ACE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Addenbrooke’s Cognitive Examination (ACE) giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx MMSE alene og udgør et velegnet supplement ved demensudredning.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CAMcog</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambridge Cognitive Examination (CAMCOG) er udviklet med henblik på at bidrage til at diagnosticere demens i et tidligt stadium og giver væsentligt flere oplysninger end fx MMSE. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>BASIC</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Brief Assessment of Impaired Cognition (BASIC) er udviklet til rettidig identifikation af kognitiv svækkelse og demens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MCE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multicultural Cognitive Examination (MCE) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. MCE giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx RUDAS alene og udgør et velegnet supplement ved tværkulturel demensudredning.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>SupportPersonPresent</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Var der en pårørende / professionel omsorgsperson involveret i vurderingerne?
 Da demente ikke altid selv har indsigt i eget funktionsniveau, da inddrages pårørende eller andre, som kender patienten indgående. Der markeres ”Ja” hvis der har været en pårørende og/eller professionel omsorgsperson (der kender patienten til at kunne svare på vurderingen) ved forundersøgelse.
@@ -701,359 +1072,150 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="D13" t="inlineStr">
+    <row r="32">
+      <c r="D32" t="inlineStr">
         <is>
           <t>StatusCode</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Der skal svares Ja, hvis patienten er blevet tilbudt henvisning. Både hvis patient/pårørende ønsker dette sat i værk eller hvis de ikke ønsker dette sat i værk.</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CAMcog</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cambridge Cognitive Examination (CAMCOG) er udviklet med henblik på at bidrage til at diagnosticere demens i et tidligt stadium og giver væsentligt flere oplysninger end fx MMSE. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ADSC_ADL</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Alzheimer's Disease Cooperative Study(ADCS)-ADL er udviklet med henblik på vurdering af praktisk funktionsevne hos patienter med Alzheimers sygdom.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>DAD</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">The Disability Assessment for Dementia (DAD) er udviklet af en gruppe canadiske ergo- og fysioterapeuter med henblik på vurdering af praktisk funktionsevne hos hjemmeboende patienter med Alzheimers sygdom. Instrumentet er følsomt over for ændringer i funktionsevne.
 </t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="36">
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Trinvold_DSQIID</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Trindvold/DSQIID er instrumenter der anvendes til vurdering af patienter med samtidig Downs syndrom eller anden mental retardering og mistanke om erhvervet demenssygdom.
-Dette instrument anvendes, når det ikke er muligt at anvende de sædvanlige instrumenter grundet mental retardering m.fl.
-**I tilfælde af denne er positiv, er der ikke behov for at udføre de andre tests. (LISTE AF TESTS)**</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>RUDAS</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>The Rowland Universal Dementia Assessment Scale (RUDAS) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. 
-**Hvis denne test er udført, er der ikke behov for at udføre yderligere tests. Det anbefales derfor at implementere denne først i integrationer til webservicen.**</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>**Hvis denne test er udført, er der ikke behov for at udføre yderligere tests. Det anbefales derfor at implementere denne først i integrationer til webservicen.**</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>FAQ_IADL</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Functional Activities Questionnaire (FAQ IADL) er udviklet med henblik på – via oplysninger fra pårørende – at opnå en hurtig og systematisk vurdering af patientens praktiske funktionsevne i hverdagen.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>BASIC</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Brief Assessment of Impaired Cognition (BASIC) er udviklet til rettidig identifikation af kognitiv svækkelse og demens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>MMSE</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Mini mental status examination (MMSE) er uden sammenligning det hyppigst anvendte kognitive screeningsinstrument i ind- og udland og indgår som rutineundersøgelse ved demensudredning.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Activity</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>MR_Scan</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NPU</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Er Neuropsykologisk undersøgelse (NPU) udført i udredningsenhedens regi, uddelegeret derfra eller blevet gennemlæst/vurderet af udredningsenhedens neuropsykologer og fundet velgennemført?
+**Testen skal være udført inden for de seneste 12 mdr.**</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>str</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Forelægger der MR-scanning af cerebrum og evt. adgang til  billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.
-**Bemærk:** Dette indberettes som data af typen DateTime for at muliggøre automatisk indberetning, ikke fordi at dato og tid er af analytisk relevans. Derfor kan tid indberettes som 00:00:00. Hvis dette ikke indberettes tolkes det som at MR-scanning ikke har fundet sted.</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Hvis dette ikke indberettes tolkes det som at NPU ikke har fundet sted.
+**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>Activity</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>CT_Scan</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Forelægger der CT-scanning af cerebrum og evt. adgang til billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.
-**Bemærk:** Dette indberettes som data af typen DateTime for at muliggøre automatisk indberetning, ikke fordi at dato og tid er af analytisk relevans. Derfor kan tid indberettes som 00:00:00. Hvis dette ikke indberettes tolkes det som at CT-scanning ikke har fundet sted.</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>NPHAssessment</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Dette er kun relevant for:
 - Rigshospitalet, Blegdamsvej (SOR: 253121000016002)
@@ -1062,241 +1224,92 @@
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
+    <row r="40">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>str</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Er der udført normal-tryks-hydrocephalus (NPH)-udredning? Udredningen foretages, hvis man mistænker forhøjet intrakranielt tryk som årsag til kognigitiv deficit.</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Hvis dette ikke indberettes tolkes det som at NPH-assessment ikke har fundet sted.
+**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>Activity</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>NPU</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Neuropsykologisk undersøgelse (NPU)</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CT_Scan</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Forelægger der CT-scanning af cerebrum og evt. adgang til billeder foretaget indenfor **24 måneder** før diagnosesamtaledatoen.
+**Scanningen skal være udført inden for de seneste 24 mdr.**</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>str</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Er NPU udført i udredningsenhedens regi, uddelegeret derfra eller blevet gennemlæst/vurderet af udredningsenhedens neuropsykologer og fundet velgennemført?
-**Testen skal være udført inden for de seneste 12 mdr.**</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Hvis dette ikke indberettes tolkes det som at CT-scanning ikke har fundet sted.
+**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ReferralFreeChoice</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fritvalgshenvisning modtaget
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Patienter der er omvisiteret via fritvalgsordning til primær udredning jf. henvisningstype, da skal datoen for fritvalgshenvisningen oplyses. Fritvalgshenvisning kan gives ved lang ventetid.</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>InformDiagnosis</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Denne dato er ekstrem vigtig og der skal gøres en stor indsats for at validere denne dato. Denne dato kobles bl.a. med henvsiningsdato og første kontakt dato i udredningsforløbet identificeret i LPR ved procedurekoden ZZ1500. Herudfra bestemmes ventetid og udredningstid, hvilke er ekstremt vigtige parametre for patient og pårørende og dermed ventidsgarantier regionerne bør leve op til. 
-Datoen er den dato, hvor alle undersøgelser, der er blevet lavet i udredningsforløbet foreligger og er vurderet/beskrevet og dermed kan føre til en konklusiv diagnose på det bedst mulige kliniske grundlag.
-</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Dato for diagnosesamtale defineres som den dag patienten første gang informeres om en diagnostisk konklusion. Dette er normalt ved en ambulant konsultation. Se eksempler nedenfor. Det skal ses fra patienten synsvinkel: ”Hvornår fik jeg første gang noget at vide om diagnose og evt. behandling.
-Hvis der gives svar per brev (f. eks hvis patienten ikke ønsker at møde op, eller der er aftalt brevsvar) anvendes dato for afgivelse af dette svar.
-Hvis patienten aflyser midt i et udredningsforløb, anvendes den dato hvor patienten afsluttes journalmæssigt.
-Hvis patienten dør under udredningsforløb, anvendes dødsdato.
-Hvis patienten efter den initiale udredning informeres om, at der er depression / depressive symptomer (og evt. sættes i behandling) vil dette være dato for diagnose. Dette også selv om man klinisk kan have en mistanke om en bagvedliggende demenssygdom, men hvor diagnose først kan stilles når depressionen er behandlet.</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>ReferralCommunalCoordinator</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Kommunal demenskoordinator henvisning</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Der skal svares Ja, hvis patienten er blevet tilbudt henvisning. Både hvis patient/pårørende ønsker dette sat i værk eller hvis de ikke ønsker dette sat i værk.</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Referral</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Henvisningstype  / Pt. ønsker ikke udredning.
-Henvisningstypen er afgørende for, hvorledes patienten indgår i indikatorberegningen.</t>
-        </is>
-      </c>
-    </row>
     <row r="43">
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MR_Scan</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Forelægger der MR-scanning af cerebrum og evt. adgang til  billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.
+**Scanningen skal være udført inden for de seneste 24 mdr.**</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="D44" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1306,7 +1319,8 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
+          <t>Hvis dette ikke indberettes tolkes det som at MR-scanning ikke har fundet sted.
+**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">

--- a/dandem_export_v1_0_0.xlsx
+++ b/dandem_export_v1_0_0.xlsx
@@ -488,112 +488,92 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>InformDiagnosis</t>
+          <t>RUDAS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Denne dato er ekstrem vigtig og der skal gøres en stor indsats for at validere denne dato. Denne dato kobles bl.a. med henvsiningsdato og første kontakt dato i udredningsforløbet identificeret i LPR ved procedurekoden ZZ1500. Herudfra bestemmes ventetid og udredningstid, hvilke er ekstremt vigtige parametre for patient og pårørende og dermed ventidsgarantier regionerne bør leve op til. 
-Datoen er den dato, hvor alle undersøgelser, der er blevet lavet i udredningsforløbet foreligger og er vurderet/beskrevet og dermed kan føre til en konklusiv diagnose på det bedst mulige kliniske grundlag.
-</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>The Rowland Universal Dementia Assessment Scale (RUDAS) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. 
+**Hvis denne test er udført, er der ikke behov for at udføre yderligere tests. Det anbefales derfor at implementere denne først i integrationer til webservicen.**</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Dato for diagnosesamtale defineres som den dag patienten første gang informeres om en diagnostisk konklusion. Dette er normalt ved en ambulant konsultation. Se eksempler nedenfor. Det skal ses fra patienten synsvinkel: ”Hvornår fik jeg første gang noget at vide om diagnose og evt. behandling.
-Hvis der gives svar per brev (f. eks hvis patienten ikke ønsker at møde op, eller der er aftalt brevsvar) anvendes dato for afgivelse af dette svar.
-Hvis patienten aflyser midt i et udredningsforløb, anvendes den dato hvor patienten afsluttes journalmæssigt.
-Hvis patienten dør under udredningsforløb, anvendes dødsdato.
-Hvis patienten efter den initiale udredning informeres om, at der er depression / depressive symptomer (og evt. sættes i behandling) vil dette være dato for diagnose. Dette også selv om man klinisk kan have en mistanke om en bagvedliggende demenssygdom, men hvor diagnose først kan stilles når depressionen er behandlet.</t>
+          <t>**Hvis denne test er udført, er der ikke behov for at udføre yderligere tests. Det anbefales derfor at implementere denne først i integrationer til webservicen.**</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ReferralCommunalCoordinator</t>
+          <t>DAD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kommunal demenskoordinator henvisning</t>
+          <t xml:space="preserve">The Disability Assessment for Dementia (DAD) er udviklet af en gruppe canadiske ergo- og fysioterapeuter med henblik på vurdering af praktisk funktionsevne hos hjemmeboende patienter med Alzheimers sygdom. Instrumentet er følsomt over for ændringer i funktionsevne.
+</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Der skal svares Ja, hvis patienten er blevet tilbudt henvisning. Både hvis patient/pårørende ønsker dette sat i værk eller hvis de ikke ønsker dette sat i værk.</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Referral</t>
+          <t>ADSC_ADL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Henvisningstype  / Pt. ønsker ikke udredning.
-Henvisningstypen er afgørende for, hvorledes patienten indgår i indikatorberegningen.</t>
+          <t>Alzheimer's Disease Cooperative Study(ADCS)-ADL er udviklet med henblik på vurdering af praktisk funktionsevne hos patienter med Alzheimers sygdom.</t>
         </is>
       </c>
     </row>
@@ -605,146 +585,364 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MMSE</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Mini mental status examination (MMSE) er uden sammenligning det hyppigst anvendte kognitive screeningsinstrument i ind- og udland og indgår som rutineundersøgelse ved demensudredning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BASIC</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Brief Assessment of Impaired Cognition (BASIC) er udviklet til rettidig identifikation af kognitiv svækkelse og demens.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Trinvold_DSQIID</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Trindvold/DSQIID er instrumenter der anvendes til vurdering af patienter med samtidig Downs syndrom eller anden mental retardering og mistanke om erhvervet demenssygdom.
+Dette instrument anvendes, når det ikke er muligt at anvende de sædvanlige instrumenter grundet mental retardering m.fl.
+**I tilfælde af denne er positiv, er der ikke behov for at udføre de andre tests: MMSE, ACE, BASIC, CAMcog, MoCa, MCE, RUDAS, FAQ_IADL, DAD, ADSC_ADL, CognitiveImpairment**</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ReferralFreeChoice</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fritvalgshenvisning modtaget
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MoCa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Montreal Cognitive Assessment (MoCA) er udviklet med henblik på at identificere mild cognitive impairment (let kognitiv svækkelse; MCI).
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Patienter der er omvisiteret via fritvalgsordning til primær udredning jf. henvisningstype, da skal datoen for fritvalgshenvisningen oplyses. Fritvalgshenvisning kan gives ved lang ventetid.</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="15">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MCE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multicultural Cognitive Examination (MCE) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. MCE giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx RUDAS alene og udgør et velegnet supplement ved tværkulturel demensudredning.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SupportPersonPresent</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Var der en pårørende / professionel omsorgsperson involveret i vurderingerne?
+Da demente ikke altid selv har indsigt i eget funktionsniveau, da inddrages pårørende eller andre, som kender patienten indgående. Der markeres ”Ja” hvis der har været en pårørende og/eller professionel omsorgsperson (der kender patienten til at kunne svare på vurderingen) ved forundersøgelse.
+Denne variabel er dækkende for alle de nævnte vurderinger, og det antages at hvis der har været en pårørende til stede ved en vurdering har der været en pårørende til stede ved alle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CAMcog</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cambridge Cognitive Examination (CAMCOG) er udviklet med henblik på at bidrage til at diagnosticere demens i et tidligt stadium og giver væsentligt flere oplysninger end fx MMSE. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ACE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Addenbrooke’s Cognitive Examination (ACE) giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx MMSE alene og udgør et velegnet supplement ved demensudredning.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>FAQ_IADL</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t xml:space="preserve">Functional Activities Questionnaire (FAQ IADL) er udviklet med henblik på – via oplysninger fra pårørende – at opnå en hurtig og systematisk vurdering af patientens praktiske funktionsevne i hverdagen.
 </t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="25">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>CognitiveImpairment</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Habituel kognitiv funktion: Test inden for alders- og uddannelseskorrigeret normalområde og præmorbid funktion.</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+    <row r="27">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>*Kognitiv svækkelse, ikke dement*
 Kognitiv svækkelse i et eller flere domæner, men ikke dement (normal ADL). Det er ikke  afgørende om patienten har svigt indenfor ét eller flere kognitive domæner, men om patienten trods svigt opretholder et normalt dagligt funktionsniveau. Den kognitive svækkelse kan være på såvel organisk som non-organisk baggrund.
@@ -758,356 +956,149 @@
 NIA-AA kriterier for demens skal være opfyldte og ADL påvirkning er svær jf. ICD-10 kriterier</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "kognitiv_intakt" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>RUDAS</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>The Rowland Universal Dementia Assessment Scale (RUDAS) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. 
-**Hvis denne test er udført, er der ikke behov for at udføre yderligere tests. Det anbefales derfor at implementere denne først i integrationer til webservicen.**</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>**Hvis denne test er udført, er der ikke behov for at udføre yderligere tests. Det anbefales derfor at implementere denne først i integrationer til webservicen.**</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Trinvold_DSQIID</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Trindvold/DSQIID er instrumenter der anvendes til vurdering af patienter med samtidig Downs syndrom eller anden mental retardering og mistanke om erhvervet demenssygdom.
-Dette instrument anvendes, når det ikke er muligt at anvende de sædvanlige instrumenter grundet mental retardering m.fl.
-**I tilfælde af denne er positiv, er der ikke behov for at udføre de andre tests: MMSE, ACE, BASIC, CAMcog, MoCa, MCE, RUDAS, FAQ_IADL, DAD, ADSC_ADL, CognitiveImpairment**</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>MMSE</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Mini mental status examination (MMSE) er uden sammenligning det hyppigst anvendte kognitive screeningsinstrument i ind- og udland og indgår som rutineundersøgelse ved demensudredning.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>MoCa</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Montreal Cognitive Assessment (MoCA) er udviklet med henblik på at identificere mild cognitive impairment (let kognitiv svækkelse; MCI).
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>InformDiagnosis</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denne dato er ekstrem vigtig og der skal gøres en stor indsats for at validere denne dato. Denne dato kobles bl.a. med henvsiningsdato og første kontakt dato i udredningsforløbet identificeret i LPR ved procedurekoden ZZ1500. Herudfra bestemmes ventetid og udredningstid, hvilke er ekstremt vigtige parametre for patient og pårørende og dermed ventidsgarantier regionerne bør leve op til. 
+Datoen er den dato, hvor alle undersøgelser, der er blevet lavet i udredningsforløbet foreligger og er vurderet/beskrevet og dermed kan føre til en konklusiv diagnose på det bedst mulige kliniske grundlag.
 </t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ACE</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Addenbrooke’s Cognitive Examination (ACE) giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx MMSE alene og udgør et velegnet supplement ved demensudredning.
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Dato for diagnosesamtale defineres som den dag patienten første gang informeres om en diagnostisk konklusion. Dette er normalt ved en ambulant konsultation. Se eksempler nedenfor. Det skal ses fra patienten synsvinkel: ”Hvornår fik jeg første gang noget at vide om diagnose og evt. behandling.
+Hvis der gives svar per brev (f. eks hvis patienten ikke ønsker at møde op, eller der er aftalt brevsvar) anvendes dato for afgivelse af dette svar.
+Hvis patienten aflyser midt i et udredningsforløb, anvendes den dato hvor patienten afsluttes journalmæssigt.
+Hvis patienten dør under udredningsforløb, anvendes dødsdato.
+Hvis patienten efter den initiale udredning informeres om, at der er depression / depressive symptomer (og evt. sættes i behandling) vil dette være dato for diagnose. Dette også selv om man klinisk kan have en mistanke om en bagvedliggende demenssygdom, men hvor diagnose først kan stilles når depressionen er behandlet.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ReferralFreeChoice</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fritvalgshenvisning modtaget
 </t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CAMcog</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cambridge Cognitive Examination (CAMCOG) er udviklet med henblik på at bidrage til at diagnosticere demens i et tidligt stadium og giver væsentligt flere oplysninger end fx MMSE. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>BASIC</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Brief Assessment of Impaired Cognition (BASIC) er udviklet til rettidig identifikation af kognitiv svækkelse og demens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MCE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multicultural Cognitive Examination (MCE) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. MCE giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx RUDAS alene og udgør et velegnet supplement ved tværkulturel demensudredning.  
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
-        </is>
-      </c>
-    </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>SupportPersonPresent</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Var der en pårørende / professionel omsorgsperson involveret i vurderingerne?
-Da demente ikke altid selv har indsigt i eget funktionsniveau, da inddrages pårørende eller andre, som kender patienten indgående. Der markeres ”Ja” hvis der har været en pårørende og/eller professionel omsorgsperson (der kender patienten til at kunne svare på vurderingen) ved forundersøgelse.
-Denne variabel er dækkende for alle de nævnte vurderinger, og det antages at hvis der har været en pårørende til stede ved en vurdering har der været en pårørende til stede ved alle.</t>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Patienter der er omvisiteret via fritvalgsordning til primær udredning jf. henvisningstype, da skal datoen for fritvalgshenvisningen oplyses. Fritvalgshenvisning kan gives ved lang ventetid.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Der skal svares Ja, hvis patienten er blevet tilbudt henvisning. Både hvis patient/pårørende ønsker dette sat i værk eller hvis de ikke ønsker dette sat i værk.</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Referral</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Henvisningstype  / Pt. ønsker ikke udredning.
+Henvisningstypen er afgørende for, hvorledes patienten indgår i indikatorberegningen.</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ADSC_ADL</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Alzheimer's Disease Cooperative Study(ADCS)-ADL er udviklet med henblik på vurdering af praktisk funktionsevne hos patienter med Alzheimers sygdom.</t>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -1119,252 +1110,90 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
+          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DAD</t>
+          <t>ReferralCommunalCoordinator</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Disability Assessment for Dementia (DAD) er udviklet af en gruppe canadiske ergo- og fysioterapeuter med henblik på vurdering af praktisk funktionsevne hos hjemmeboende patienter med Alzheimers sygdom. Instrumentet er følsomt over for ændringer i funktionsevne.
-</t>
+          <t>Kommunal demenskoordinator henvisning</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="D36" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>StatusCode</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Der skal svares Ja, hvis patienten er blevet tilbudt henvisning. Både hvis patient/pårørende ønsker dette sat i værk eller hvis de ikke ønsker dette sat i værk.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Diagnosis</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NPU</t>
+          <t>EtiologicalDiagnosis</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
-        <is>
-          <t>Er Neuropsykologisk undersøgelse (NPU) udført i udredningsenhedens regi, uddelegeret derfra eller blevet gennemlæst/vurderet af udredningsenhedens neuropsykologer og fundet velgennemført?
-**Testen skal være udført inden for de seneste 12 mdr.**</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Hvis dette ikke indberettes tolkes det som at NPU ikke har fundet sted.
-**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>NPHAssessment</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Dette er kun relevant for:
-- Rigshospitalet, Blegdamsvej (SOR: 253121000016002)
-- Aalborg UH, Demensenheden (SOR: 911061000016003)
-- Aalborg UH, Neurologisk (SOR: 275991000016001)</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Hvis dette ikke indberettes tolkes det som at NPH-assessment ikke har fundet sted.
-**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>CT_Scan</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Forelægger der CT-scanning af cerebrum og evt. adgang til billeder foretaget indenfor **24 måneder** før diagnosesamtaledatoen.
-**Scanningen skal være udført inden for de seneste 24 mdr.**</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Hvis dette ikke indberettes tolkes det som at CT-scanning ikke har fundet sted.
-**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>MR_Scan</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Forelægger der MR-scanning af cerebrum og evt. adgang til  billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.
-**Scanningen skal være udført inden for de seneste 24 mdr.**</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Hvis dette ikke indberettes tolkes det som at MR-scanning ikke har fundet sted.
-**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Diagnosis</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>EtiologicalDiagnosis</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>Hvis Graden af kognitiv påvirkning ikke er svarende til Habituel kognitiv funktion, da skal Ætiologisk diagnose angives, hvis det er muligt. 
 Den sygdomsspecifikke diagnose, der registres skal være den anførte diagnose i journalen og som er kommunikeret til patient/pårørende. Ved flere konkurrerende ætiologier indberettes den ætiologi, der bedst beskriver den dominerende kliniske tilstand. 
 Siden 2015 har de diagnostiske kriterier for demens været diskuteret, men der er stadig ikke konsensus om, hvilke diagnostiske kriterier, der skal anvendes på tværs af landet. Trial Nation anbefaler følgende diagnosekriterier:</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="D46" t="inlineStr">
+    <row r="38">
+      <c r="D38" t="inlineStr">
         <is>
           <t>DiagnosisCode</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>*Demens*
 National Institute on Aging and the Alzheimer's Association (NIA-AA) workgroup kriterier (McKhann GM et al. 2011)
@@ -1400,14 +1229,180 @@
 Hvis der ikke kan stilles en specifik diagnose.</t>
         </is>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden__ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | </t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>NPHAssessment</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Dette er kun relevant for:
+- Rigshospitalet, Blegdamsvej (SOR: 253121000016002)
+- Aalborg UH, Demensenheden (SOR: 911061000016003)
+- Aalborg UH, Neurologisk (SOR: 275991000016001)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Hvis dette ikke indberettes tolkes det som at NPH-assessment ikke har fundet sted.
+**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MR_Scan</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Forelægger der MR-scanning af cerebrum og evt. adgang til  billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.
+**Scanningen skal være udført inden for de seneste 24 mdr.**</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Hvis dette ikke indberettes tolkes det som at MR-scanning ikke har fundet sted.
+**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NPU</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Er Neuropsykologisk undersøgelse (NPU) udført i udredningsenhedens regi, uddelegeret derfra eller blevet gennemlæst/vurderet af udredningsenhedens neuropsykologer og fundet velgennemført?
+**Testen skal være udført inden for de seneste 12 mdr.**</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Hvis dette ikke indberettes tolkes det som at NPU ikke har fundet sted.
+**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Activity</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CT_Scan</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Forelægger der CT-scanning af cerebrum og evt. adgang til billeder foretaget indenfor **24 måneder** før diagnosesamtaledatoen.
+**Scanningen skal være udført inden for de seneste 24 mdr.**</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Hvis dette ikke indberettes tolkes det som at CT-scanning ikke har fundet sted.
+**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden__ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | </t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>

--- a/dandem_export_v1_0_0.xlsx
+++ b/dandem_export_v1_0_0.xlsx
@@ -488,18 +488,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RUDAS</t>
+          <t>NPHAssessment</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The Rowland Universal Dementia Assessment Scale (RUDAS) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. 
-**Hvis denne test er udført, er der ikke behov for at udføre yderligere tests. Det anbefales derfor at implementere denne først i integrationer til webservicen.**</t>
+          <t>Dette er kun relevant for:
+- Rigshospitalet, Blegdamsvej (SOR: 253121000016002)
+- Aalborg UH, Demensenheden (SOR: 911061000016003)
+- Aalborg UH, Neurologisk (SOR: 275991000016001)</t>
         </is>
       </c>
     </row>
@@ -511,35 +513,36 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>**Hvis denne test er udført, er der ikke behov for at udføre yderligere tests. Det anbefales derfor at implementere denne først i integrationer til webservicen.**</t>
+          <t>Hvis dette ikke indberettes tolkes det som at NPH-assessment ikke har fundet sted.
+**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAD</t>
+          <t>MR_Scan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Disability Assessment for Dementia (DAD) er udviklet af en gruppe canadiske ergo- og fysioterapeuter med henblik på vurdering af praktisk funktionsevne hos hjemmeboende patienter med Alzheimers sygdom. Instrumentet er følsomt over for ændringer i funktionsevne.
-</t>
+          <t>Forelægger der MR-scanning af cerebrum og evt. adgang til  billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.
+**Scanningen skal være udført inden for de seneste 24 mdr.**</t>
         </is>
       </c>
     </row>
@@ -551,29 +554,36 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hvis dette ikke indberettes tolkes det som at MR-scanning ikke har fundet sted.
+**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ADSC_ADL</t>
+          <t>CT_Scan</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Alzheimer's Disease Cooperative Study(ADCS)-ADL er udviklet med henblik på vurdering af praktisk funktionsevne hos patienter med Alzheimers sygdom.</t>
+          <t>Forelægger der CT-scanning af cerebrum og evt. adgang til billeder foretaget indenfor **24 måneder** før diagnosesamtaledatoen.
+**Scanningen skal være udført inden for de seneste 24 mdr.**</t>
         </is>
       </c>
     </row>
@@ -585,29 +595,36 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hvis dette ikke indberettes tolkes det som at CT-scanning ikke har fundet sted.
+**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MMSE</t>
+          <t>NPU</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mini mental status examination (MMSE) er uden sammenligning det hyppigst anvendte kognitive screeningsinstrument i ind- og udland og indgår som rutineundersøgelse ved demensudredning.</t>
+          <t>Er Neuropsykologisk undersøgelse (NPU) udført i udredningsenhedens regi, uddelegeret derfra eller blevet gennemlæst/vurderet af udredningsenhedens neuropsykologer og fundet velgennemført?
+**Testen skal være udført inden for de seneste 12 mdr.**</t>
         </is>
       </c>
     </row>
@@ -619,12 +636,18 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Hvis dette ikke indberettes tolkes det som at NPU ikke har fundet sted.
+**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
@@ -636,12 +659,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BASIC</t>
+          <t>CAMcog</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Brief Assessment of Impaired Cognition (BASIC) er udviklet til rettidig identifikation af kognitiv svækkelse og demens.</t>
+          <t xml:space="preserve">Cambridge Cognitive Examination (CAMCOG) er udviklet med henblik på at bidrage til at diagnosticere demens i et tidligt stadium og giver væsentligt flere oplysninger end fx MMSE. 
+</t>
         </is>
       </c>
     </row>
@@ -658,7 +682,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
         </is>
       </c>
     </row>
@@ -670,31 +694,30 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Trinvold_DSQIID</t>
+          <t>ACE</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Trindvold/DSQIID er instrumenter der anvendes til vurdering af patienter med samtidig Downs syndrom eller anden mental retardering og mistanke om erhvervet demenssygdom.
-Dette instrument anvendes, når det ikke er muligt at anvende de sædvanlige instrumenter grundet mental retardering m.fl.
-**I tilfælde af denne er positiv, er der ikke behov for at udføre de andre tests: MMSE, ACE, BASIC, CAMcog, MoCa, MCE, RUDAS, FAQ_IADL, DAD, ADSC_ADL, CognitiveImpairment**</t>
+          <t xml:space="preserve">Addenbrooke’s Cognitive Examination (ACE) giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx MMSE alene og udgør et velegnet supplement ved demensudredning.
+</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="D13" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>str, Enum</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
         </is>
       </c>
     </row>
@@ -706,13 +729,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MoCa</t>
+          <t>BASIC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Montreal Cognitive Assessment (MoCA) er udviklet med henblik på at identificere mild cognitive impairment (let kognitiv svækkelse; MCI).
-</t>
+          <t>Brief Assessment of Impaired Cognition (BASIC) er udviklet til rettidig identifikation af kognitiv svækkelse og demens.</t>
         </is>
       </c>
     </row>
@@ -729,7 +751,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
         </is>
       </c>
     </row>
@@ -741,13 +763,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MCE</t>
+          <t>CognitiveImpairment</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Multicultural Cognitive Examination (MCE) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. MCE giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx RUDAS alene og udgør et velegnet supplement ved tværkulturel demensudredning.  
-</t>
+          <t>Habituel kognitiv funktion: Test inden for alders- og uddannelseskorrigeret normalområde og præmorbid funktion.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -759,190 +785,10 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>SupportPersonPresent</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Var der en pårørende / professionel omsorgsperson involveret i vurderingerne?
-Da demente ikke altid selv har indsigt i eget funktionsniveau, da inddrages pårørende eller andre, som kender patienten indgående. Der markeres ”Ja” hvis der har været en pårørende og/eller professionel omsorgsperson (der kender patienten til at kunne svare på vurderingen) ved forundersøgelse.
-Denne variabel er dækkende for alle de nævnte vurderinger, og det antages at hvis der har været en pårørende til stede ved en vurdering har der været en pårørende til stede ved alle.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CAMcog</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cambridge Cognitive Examination (CAMCOG) er udviklet med henblik på at bidrage til at diagnosticere demens i et tidligt stadium og giver væsentligt flere oplysninger end fx MMSE. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>ACE</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Addenbrooke’s Cognitive Examination (ACE) giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx MMSE alene og udgør et velegnet supplement ved demensudredning.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>FAQ_IADL</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Functional Activities Questionnaire (FAQ IADL) er udviklet med henblik på – via oplysninger fra pårørende – at opnå en hurtig og systematisk vurdering af patientens praktiske funktionsevne i hverdagen.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>CognitiveImpairment</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Habituel kognitiv funktion: Test inden for alders- og uddannelseskorrigeret normalområde og præmorbid funktion.</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>*Kognitiv svækkelse, ikke dement*
 Kognitiv svækkelse i et eller flere domæner, men ikke dement (normal ADL). Det er ikke  afgørende om patienten har svigt indenfor ét eller flere kognitive domæner, men om patienten trods svigt opretholder et normalt dagligt funktionsniveau. Den kognitive svækkelse kan være på såvel organisk som non-organisk baggrund.
@@ -956,53 +802,509 @@
 NIA-AA kriterier for demens skal være opfyldte og ADL påvirkning er svær jf. ICD-10 kriterier</t>
         </is>
       </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "kognitiv_intakt" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Trinvold_DSQIID</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Trindvold/DSQIID er instrumenter der anvendes til vurdering af patienter med samtidig Downs syndrom eller anden mental retardering og mistanke om erhvervet demenssygdom.
+Dette instrument anvendes, når det ikke er muligt at anvende de sædvanlige instrumenter grundet mental retardering m.fl.
+**I tilfælde af denne er positiv, er der ikke behov for at udføre de andre tests: MMSE, ACE, BASIC, CAMcog, MoCa, MCE, RUDAS, FAQ_IADL, DAD, ADSC_ADL, CognitiveImpairment**</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SupportPersonPresent</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Var der en pårørende / professionel omsorgsperson involveret i vurderingerne?
+Da demente ikke altid selv har indsigt i eget funktionsniveau, da inddrages pårørende eller andre, som kender patienten indgående. Der markeres ”Ja” hvis der har været en pårørende og/eller professionel omsorgsperson (der kender patienten til at kunne svare på vurderingen) ved forundersøgelse.
+Denne variabel er dækkende for alle de nævnte vurderinger, og det antages at hvis der har været en pårørende til stede ved en vurdering har der været en pårørende til stede ved alle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MMSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mini mental status examination (MMSE) er uden sammenligning det hyppigst anvendte kognitive screeningsinstrument i ind- og udland og indgår som rutineundersøgelse ved demensudredning.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MoCa</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Montreal Cognitive Assessment (MoCA) er udviklet med henblik på at identificere mild cognitive impairment (let kognitiv svækkelse; MCI).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RUDAS</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>The Rowland Universal Dementia Assessment Scale (RUDAS) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. 
+**Hvis denne test er udført, er der ikke behov for at udføre yderligere tests. Det anbefales derfor at implementere denne først i integrationer til webservicen.**</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>**Hvis denne test er udført, er der ikke behov for at udføre yderligere tests. Det anbefales derfor at implementere denne først i integrationer til webservicen.**</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "kognitiv_intakt" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>FAQ_IADL</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Functional Activities Questionnaire (FAQ IADL) er udviklet med henblik på – via oplysninger fra pårørende – at opnå en hurtig og systematisk vurdering af patientens praktiske funktionsevne i hverdagen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ADSC_ADL</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Alzheimer's Disease Cooperative Study(ADCS)-ADL er udviklet med henblik på vurdering af praktisk funktionsevne hos patienter med Alzheimers sygdom.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DAD</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Disability Assessment for Dementia (DAD) er udviklet af en gruppe canadiske ergo- og fysioterapeuter med henblik på vurdering af praktisk funktionsevne hos hjemmeboende patienter med Alzheimers sygdom. Instrumentet er følsomt over for ændringer i funktionsevne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MCE</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Multicultural Cognitive Examination (MCE) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. MCE giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx RUDAS alene og udgør et velegnet supplement ved tværkulturel demensudredning.  
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Referral</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Henvisningstype  / Pt. ønsker ikke udredning.
+Henvisningstypen er afgørende for, hvorledes patienten indgår i indikatorberegningen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ReferralFreeChoice</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fritvalgshenvisning modtaget
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Patienter der er omvisiteret via fritvalgsordning til primær udredning jf. henvisningstype, da skal datoen for fritvalgshenvisningen oplyses. Fritvalgshenvisning kan gives ved lang ventetid.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ReferralCommunalCoordinator</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Kommunal demenskoordinator henvisning</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Der skal svares Ja, hvis patienten er blevet tilbudt henvisning. Både hvis patient/pårørende ønsker dette sat i værk eller hvis de ikke ønsker dette sat i værk.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>InformDiagnosis</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t xml:space="preserve">Denne dato er ekstrem vigtig og der skal gøres en stor indsats for at validere denne dato. Denne dato kobles bl.a. med henvsiningsdato og første kontakt dato i udredningsforløbet identificeret i LPR ved procedurekoden ZZ1500. Herudfra bestemmes ventetid og udredningstid, hvilke er ekstremt vigtige parametre for patient og pårørende og dermed ventidsgarantier regionerne bør leve op til. 
 Datoen er den dato, hvor alle undersøgelser, der er blevet lavet i udredningsforløbet foreligger og er vurderet/beskrevet og dermed kan føre til en konklusiv diagnose på det bedst mulige kliniske grundlag.
 </t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="inlineStr">
+    <row r="44">
+      <c r="D44" t="inlineStr">
         <is>
           <t>DateTime</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>str</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Dato for diagnosesamtale defineres som den dag patienten første gang informeres om en diagnostisk konklusion. Dette er normalt ved en ambulant konsultation. Se eksempler nedenfor. Det skal ses fra patienten synsvinkel: ”Hvornår fik jeg første gang noget at vide om diagnose og evt. behandling.
 Hvis der gives svar per brev (f. eks hvis patienten ikke ønsker at møde op, eller der er aftalt brevsvar) anvendes dato for afgivelse af dette svar.
@@ -1011,189 +1313,53 @@
 Hvis patienten efter den initiale udredning informeres om, at der er depression / depressive symptomer (og evt. sættes i behandling) vil dette være dato for diagnose. Dette også selv om man klinisk kan have en mistanke om en bagvedliggende demenssygdom, men hvor diagnose først kan stilles når depressionen er behandlet.</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ReferralFreeChoice</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fritvalgshenvisning modtaget
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Patienter der er omvisiteret via fritvalgsordning til primær udredning jf. henvisningstype, da skal datoen for fritvalgshenvisningen oplyses. Fritvalgshenvisning kan gives ved lang ventetid.</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Referral</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Henvisningstype  / Pt. ønsker ikke udredning.
-Henvisningstypen er afgørende for, hvorledes patienten indgår i indikatorberegningen.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ReferralCommunalCoordinator</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Kommunal demenskoordinator henvisning</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Der skal svares Ja, hvis patienten er blevet tilbudt henvisning. Både hvis patient/pårørende ønsker dette sat i værk eller hvis de ikke ønsker dette sat i værk.</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>Diagnosis</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>EtiologicalDiagnosis</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Hvis Graden af kognitiv påvirkning ikke er svarende til Habituel kognitiv funktion, da skal Ætiologisk diagnose angives, hvis det er muligt. 
 Den sygdomsspecifikke diagnose, der registres skal være den anførte diagnose i journalen og som er kommunikeret til patient/pårørende. Ved flere konkurrerende ætiologier indberettes den ætiologi, der bedst beskriver den dominerende kliniske tilstand. 
 Siden 2015 har de diagnostiske kriterier for demens været diskuteret, men der er stadig ikke konsensus om, hvilke diagnostiske kriterier, der skal anvendes på tværs af landet. Trial Nation anbefaler følgende diagnosekriterier:</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="inlineStr">
+    <row r="46">
+      <c r="D46" t="inlineStr">
         <is>
           <t>DiagnosisCode</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>*Demens*
 National Institute on Aging and the Alzheimer's Association (NIA-AA) workgroup kriterier (McKhann GM et al. 2011)
@@ -1229,180 +1395,14 @@
 Hvis der ikke kan stilles en specifik diagnose.</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden__ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | </t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>NPHAssessment</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Dette er kun relevant for:
-- Rigshospitalet, Blegdamsvej (SOR: 253121000016002)
-- Aalborg UH, Demensenheden (SOR: 911061000016003)
-- Aalborg UH, Neurologisk (SOR: 275991000016001)</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Hvis dette ikke indberettes tolkes det som at NPH-assessment ikke har fundet sted.
-**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>MR_Scan</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Forelægger der MR-scanning af cerebrum og evt. adgang til  billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.
-**Scanningen skal være udført inden for de seneste 24 mdr.**</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Hvis dette ikke indberettes tolkes det som at MR-scanning ikke har fundet sted.
-**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>NPU</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Er Neuropsykologisk undersøgelse (NPU) udført i udredningsenhedens regi, uddelegeret derfra eller blevet gennemlæst/vurderet af udredningsenhedens neuropsykologer og fundet velgennemført?
-**Testen skal være udført inden for de seneste 12 mdr.**</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Hvis dette ikke indberettes tolkes det som at NPU ikke har fundet sted.
-**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Activity</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>CT_Scan</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Forelægger der CT-scanning af cerebrum og evt. adgang til billeder foretaget indenfor **24 måneder** før diagnosesamtaledatoen.
-**Scanningen skal være udført inden for de seneste 24 mdr.**</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Hvis dette ikke indberettes tolkes det som at CT-scanning ikke har fundet sted.
-**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>

--- a/dandem_export_v1_0_0.xlsx
+++ b/dandem_export_v1_0_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,10 +435,10 @@
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="34" customWidth="1" min="2" max="2"/>
-    <col width="70" customWidth="1" min="3" max="3"/>
+    <col width="46" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
-    <col width="70" customWidth="1" min="6" max="6"/>
+    <col width="68" customWidth="1" min="6" max="6"/>
     <col width="70" customWidth="1" min="7" max="7"/>
     <col width="11" customWidth="1" min="8" max="8"/>
   </cols>
@@ -488,43 +488,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Diagnosis</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NPHAssessment</t>
+          <t>EtiologicalDiagnosis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dette er kun relevant for:
-- Rigshospitalet, Blegdamsvej (SOR: 253121000016002)
-- Aalborg UH, Demensenheden (SOR: 911061000016003)
-- Aalborg UH, Neurologisk (SOR: 275991000016001)</t>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DiagnosisCode</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hvis dette ikke indberettes tolkes det som at NPH-assessment ikke har fundet sted.
-**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden_ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | "ikke_relevant" | </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -536,20 +542,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MR_Scan</t>
+          <t>NPHAssessment</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Forelægger der MR-scanning af cerebrum og evt. adgang til  billeder foretaget indenfor 24 måneder før diagnosesamtaledatoen.
-**Scanningen skal være udført inden for de seneste 24 mdr.**</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -559,8 +564,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hvis dette ikke indberettes tolkes det som at MR-scanning ikke har fundet sted.
-**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -577,20 +581,19 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CT_Scan</t>
+          <t>ExtendedNeuroAssessment</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Forelægger der CT-scanning af cerebrum og evt. adgang til billeder foretaget indenfor **24 måneder** før diagnosesamtaledatoen.
-**Scanningen skal være udført inden for de seneste 24 mdr.**</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -600,8 +603,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Hvis dette ikke indberettes tolkes det som at CT-scanning ikke har fundet sted.
-**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -613,18 +615,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NPU</t>
+          <t>Referral</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Er Neuropsykologisk undersøgelse (NPU) udført i udredningsenhedens regi, uddelegeret derfra eller blevet gennemlæst/vurderet af udredningsenhedens neuropsykologer og fundet velgennemført?
-**Testen skal være udført inden for de seneste 12 mdr.**</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
@@ -636,614 +637,612 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>str</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Hvis dette ikke indberettes tolkes det som at NPU ikke har fundet sted.
-**Bemærk:** Hvis kun en dato kan findes kan tid indberettes som 00:00:00.</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>InformDiagnosis</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ReferralFreeChoice</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fritvalgshenvisning modtaget
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ReferralCommunalCoordinator</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Kommunal demenskoordinator henvisning</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CAMcog</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cambridge Cognitive Examination (CAMCOG) er udviklet med henblik på at bidrage til at diagnosticere demens i et tidligt stadium og giver væsentligt flere oplysninger end fx MMSE. 
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FAQ_IADL</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" t="inlineStr">
         <is>
           <t>ResultValue</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CognitiveImpairment</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "kognitiv_intakt" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>ACE</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Addenbrooke’s Cognitive Examination (ACE) giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx MMSE alene og udgør et velegnet supplement ved demensudredning.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="D13" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
         <is>
           <t>ResultValue</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>SupportPersonPresent</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MMSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>BASIC</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Brief Assessment of Impaired Cognition (BASIC) er udviklet til rettidig identifikation af kognitiv svækkelse og demens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="inlineStr">
         <is>
           <t>ResultValue</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CognitiveImpairment</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Habituel kognitiv funktion: Test inden for alders- og uddannelseskorrigeret normalområde og præmorbid funktion.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MCE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="inlineStr">
         <is>
           <t>ResultValue</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>*Kognitiv svækkelse, ikke dement*
-Kognitiv svækkelse i et eller flere domæner, men ikke dement (normal ADL). Det er ikke  afgørende om patienten har svigt indenfor ét eller flere kognitive domæner, men om patienten trods svigt opretholder et normalt dagligt funktionsniveau. Den kognitive svækkelse kan være på såvel organisk som non-organisk baggrund.
-*Demens i let grad jf. ICD-10*
-ICD-10 Demenskriterierne skal være opfyldte og sværhedsgrad let ud fra en samlet klinisk vurdering.
-*Demens (NIA-AA) i let grad (ICD-10)*
-NIA-AA kriterier for demens skal være opfyldte og ADL påvirkning er let jf. ICD-10 kriterier.
-*Demens (NIA-AA) i moderat grad (ICD-10):*
-NIA-AA kriterier for demens skal være opfyldte og ADL påvirkning er moderat jf. ICD-10 kriterier.
-*Demens (NIA-AA) i svær grad (ICD-10)*
-NIA-AA kriterier for demens skal være opfyldte og ADL påvirkning er svær jf. ICD-10 kriterier</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "kognitiv_intakt" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Trinvold_DSQIID</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Trindvold/DSQIID er instrumenter der anvendes til vurdering af patienter med samtidig Downs syndrom eller anden mental retardering og mistanke om erhvervet demenssygdom.
-Dette instrument anvendes, når det ikke er muligt at anvende de sædvanlige instrumenter grundet mental retardering m.fl.
-**I tilfælde af denne er positiv, er der ikke behov for at udføre de andre tests: MMSE, ACE, BASIC, CAMcog, MoCa, MCE, RUDAS, FAQ_IADL, DAD, ADSC_ADL, CognitiveImpairment**</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DAD</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>SupportPersonPresent</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Var der en pårørende / professionel omsorgsperson involveret i vurderingerne?
-Da demente ikke altid selv har indsigt i eget funktionsniveau, da inddrages pårørende eller andre, som kender patienten indgående. Der markeres ”Ja” hvis der har været en pårørende og/eller professionel omsorgsperson (der kender patienten til at kunne svare på vurderingen) ved forundersøgelse.
-Denne variabel er dækkende for alle de nævnte vurderinger, og det antages at hvis der har været en pårørende til stede ved en vurdering har der været en pårørende til stede ved alle.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MoCa</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>MMSE</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Mini mental status examination (MMSE) er uden sammenligning det hyppigst anvendte kognitive screeningsinstrument i ind- og udland og indgår som rutineundersøgelse ved demensudredning.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="D23" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ADSC_ADL</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="inlineStr">
         <is>
           <t>ResultValue</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Integer</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>MoCa</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Montreal Cognitive Assessment (MoCA) er udviklet med henblik på at identificere mild cognitive impairment (let kognitiv svækkelse; MCI).
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="B37" t="inlineStr">
         <is>
           <t>RUDAS</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>The Rowland Universal Dementia Assessment Scale (RUDAS) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. 
-**Hvis denne test er udført, er der ikke behov for at udføre yderligere tests. Det anbefales derfor at implementere denne først i integrationer til webservicen.**</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>**Hvis denne test er udført, er der ikke behov for at udføre yderligere tests. Det anbefales derfor at implementere denne først i integrationer til webservicen.**</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>FAQ_IADL</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Functional Activities Questionnaire (FAQ IADL) er udviklet med henblik på – via oplysninger fra pårørende – at opnå en hurtig og systematisk vurdering af patientens praktiske funktionsevne i hverdagen.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ADSC_ADL</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Alzheimer's Disease Cooperative Study(ADCS)-ADL er udviklet med henblik på vurdering af praktisk funktionsevne hos patienter med Alzheimers sygdom.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>DAD</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The Disability Assessment for Dementia (DAD) er udviklet af en gruppe canadiske ergo- og fysioterapeuter med henblik på vurdering af praktisk funktionsevne hos hjemmeboende patienter med Alzheimers sygdom. Instrumentet er følsomt over for ændringer i funktionsevne.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>MCE</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Multicultural Cognitive Examination (MCE) er udviklet som et så vidt muligt kulturuafhængigt eller tværkulturelt screeningsinstrument for demens. MCE giver flere og mere nuancerede oplysninger om det kognitive funktionsniveau end fx RUDAS alene og udgør et velegnet supplement ved tværkulturel demensudredning.  
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Referral</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Henvisningstype  / Pt. ønsker ikke udredning.
-Henvisningstypen er afgørende for, hvorledes patienten indgår i indikatorberegningen.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="D38" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ReferralFreeChoice</t>
+          <t>CAMcog</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fritvalgshenvisning modtaget
-</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="D40" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Patienter der er omvisiteret via fritvalgsordning til primær udredning jf. henvisningstype, da skal datoen for fritvalgshenvisningen oplyses. Fritvalgshenvisning kan gives ved lang ventetid.</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ReferralCommunalCoordinator</t>
+          <t>Trinvold_DSQIID</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Kommunal demenskoordinator henvisning</t>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
     </row>
@@ -1258,151 +1257,9 @@
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Der skal svares Ja, hvis patienten er blevet tilbudt henvisning. Både hvis patient/pårørende ønsker dette sat i værk eller hvis de ikke ønsker dette sat i værk.</t>
-        </is>
-      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>InformDiagnosis</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Denne dato er ekstrem vigtig og der skal gøres en stor indsats for at validere denne dato. Denne dato kobles bl.a. med henvsiningsdato og første kontakt dato i udredningsforløbet identificeret i LPR ved procedurekoden ZZ1500. Herudfra bestemmes ventetid og udredningstid, hvilke er ekstremt vigtige parametre for patient og pårørende og dermed ventidsgarantier regionerne bør leve op til. 
-Datoen er den dato, hvor alle undersøgelser, der er blevet lavet i udredningsforløbet foreligger og er vurderet/beskrevet og dermed kan føre til en konklusiv diagnose på det bedst mulige kliniske grundlag.
-</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Dato for diagnosesamtale defineres som den dag patienten første gang informeres om en diagnostisk konklusion. Dette er normalt ved en ambulant konsultation. Se eksempler nedenfor. Det skal ses fra patienten synsvinkel: ”Hvornår fik jeg første gang noget at vide om diagnose og evt. behandling.
-Hvis der gives svar per brev (f. eks hvis patienten ikke ønsker at møde op, eller der er aftalt brevsvar) anvendes dato for afgivelse af dette svar.
-Hvis patienten aflyser midt i et udredningsforløb, anvendes den dato hvor patienten afsluttes journalmæssigt.
-Hvis patienten dør under udredningsforløb, anvendes dødsdato.
-Hvis patienten efter den initiale udredning informeres om, at der er depression / depressive symptomer (og evt. sættes i behandling) vil dette være dato for diagnose. Dette også selv om man klinisk kan have en mistanke om en bagvedliggende demenssygdom, men hvor diagnose først kan stilles når depressionen er behandlet.</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Diagnosis</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>EtiologicalDiagnosis</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Hvis Graden af kognitiv påvirkning ikke er svarende til Habituel kognitiv funktion, da skal Ætiologisk diagnose angives, hvis det er muligt. 
-Den sygdomsspecifikke diagnose, der registres skal være den anførte diagnose i journalen og som er kommunikeret til patient/pårørende. Ved flere konkurrerende ætiologier indberettes den ætiologi, der bedst beskriver den dominerende kliniske tilstand. 
-Siden 2015 har de diagnostiske kriterier for demens været diskuteret, men der er stadig ikke konsensus om, hvilke diagnostiske kriterier, der skal anvendes på tværs af landet. Trial Nation anbefaler følgende diagnosekriterier:</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>DiagnosisCode</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>*Demens*
-National Institute on Aging and the Alzheimer's Association (NIA-AA) workgroup kriterier (McKhann GM et al. 2011)
-Nogle udredningsenheder har også erfaring med anvende NIA-AA 2018 AD-kriterierne
-*Alzheimers sygdom*
-En række demensudredningsenheder samarbejder i ADEX alliancen om harmonisering: 
-http://www.videnscenterfordemens.dk/forskning/adex/adex-alliancen/ og er 2016 enige om at  anvende følgende diagnosekriterier: National Institute on Aging and the Alzheimer's Association (NIA-AA) workgroup kriterier (McKhann GM et al. 2011)
-Nogle udredningsenheder har også erfaring med anvende NIA-AA 2018 AD-kriterierne
-*Lewy Body sygdom*
-Kriterier fra fourth consensus report of the DLB Consortium (McKeith IG et al. 2017)
-Parkinson sygdom
-*Cerebrovaskulær sygdom*
-The International Society for Vascular Behavioral and Cognitive Disorders (VAS-COG)-kriterier 
-(Sachdev P et al. 2014)
-*Mixed (Alzheimer + Cerebrovaskulær)*
-Når de kognitive symptomer er forklaret ved Alzheimers sygdom såvel som cerebrovaskulær sygdom.
-*Frontotemporal demens*
-Revised diagnostic criteria for the behavioral variant of frontotemporal demens (Rascovsky K et al. 2011) Classification of primary progressive aphasia and its variants (Gorno-Tempini M et al. 2011)
-*Atypisk Parkinson (MSA, CBS, PSP)*
-Normaltryks hydrocephalus (NPH)
-*Huntingtons sygdom*
-Diagnostic Criteria for Huntington's Disease based on Natural History (Reilmann R et al. 2014)
-*Alkohol*
-For at anvende Alkohol som den primære årsag til kognitivt deficit, så skal det være den  primære årsag og/eller der er diagnosticeret Wernicke-Korsakoff. Hvis der samtidig er verificeret en neuro-degenerativ lidelse (f. eks Alzheimers sygdom), så skal denne vælges som 
-primære årsag, ikke alkohol.
-*Anden specifik neuro-degenerativ sygdom*
-Kan f.eks. være spinocerebellare ataksier, ALS-FTD og lign.
-*Anden ikke neuro-degenerativ sygdom*
-Kan f.eks. være følger efter traume eller intra-kraniel tumor.
-*Psykiatrisk sygdom*
-Psykiatrisk genese til kognitive deficit registres selvstændigt, når det er den eneste/primære årsag. Hvis der er verificeret en neuro-degenerativ lidelse (f.eks. Alzheimers sygdom), så skal denne vælges som den primære årsag og ikke psykiatrisk sygdom.
-*Uafklaret ætiologi*
-Hvis der ikke kan stilles en specifik diagnose.</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden__ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | </t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
         </is>
       </c>
     </row>

--- a/dandem_export_v1_0_0.xlsx
+++ b/dandem_export_v1_0_0.xlsx
@@ -488,61 +488,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Diagnosis</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>EtiologicalDiagnosis</t>
+          <t>ACE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>True</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
-          <t>DiagnosisCode</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden_ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | "ikke_relevant" | </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>True</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NPHAssessment</t>
+          <t>RUDAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,12 +539,12 @@
     <row r="5">
       <c r="D5" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>Integer</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -569,36 +554,41 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Activity</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ExtendedNeuroAssessment</t>
+          <t>CognitiveImpairment</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
-          <t>DateTime</t>
+          <t>ResultValue</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>str</t>
+          <t>str, Enum</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -608,19 +598,24 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+          <t xml:space="preserve">Enums/Udfald: | "kognitiv_intakt" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Observation</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Referral</t>
+          <t>MoCa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -637,534 +632,519 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>SupportPersonPresent</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>str, Enum</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Trinvold_DSQIID</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>BASIC</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MCE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DAD</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MMSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ADSC_ADL</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CAMcog</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Observation</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FAQ_IADL</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Integer</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>InformDiagnosis</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DateTime</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ReferralCommunalCoordinator</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Kommunal demenskoordinator henvisning</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>StatusCode</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Referral</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>ResultValue</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>str, Enum</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t xml:space="preserve">Enums/Udfald: | "primaer_demensudredning_henvist_direkte" | "second_opinion" | "patient_oensker_ikke_yderligere_undersoegelser" | "omvisiteret_fritvalgspatient_til_primaer_udredning" | </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="D10" t="inlineStr">
+    <row r="34">
+      <c r="D34" t="inlineStr">
         <is>
           <t>DateTime</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>str</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Hvis 'Omvisiteret' er valgt, skal der angives en dato.</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>InformDiagnosis</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>ReferralFreeChoice</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t xml:space="preserve">Fritvalgshenvisning modtaget
 </t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>str</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ReferralCommunalCoordinator</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Kommunal demenskoordinator henvisning</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>FAQ_IADL</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CognitiveImpairment</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "kognitiv_intakt" | "kognitiv_svaekkelse" | "demens_let_grad" | "demens_moderat_grad" | "demens_svaer_grad" | </t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ACE</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>SupportPersonPresent</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>StatusCode</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>str, Enum</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | </t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MMSE</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>BASIC</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 25</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>MCE</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 100</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>DAD</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 40</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>MoCa</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>ResultValue</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Integer</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Observation</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>ADSC_ADL</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Se webservice dokumentation.</t>
-        </is>
-      </c>
-    </row>
     <row r="36">
       <c r="D36" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 78</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>RUDAS</t>
+          <t>NPHAssessment</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1176,12 +1156,12 @@
     <row r="38">
       <c r="D38" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1191,19 +1171,19 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 30</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Activity</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CAMcog</t>
+          <t>ExtendedNeuroAssessment</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1215,41 +1195,51 @@
     <row r="40">
       <c r="D40" t="inlineStr">
         <is>
-          <t>ResultValue</t>
+          <t>DateTime</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Integer</t>
+          <t>str</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Greater than or equal to: 0 | Less than or equal to: 105</t>
+          <t>Date format: | DD-MM-YYYY HH:MM:SS |</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Diagnosis</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Trinvold_DSQIID</t>
+          <t>EtiologicalDiagnosis</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="D42" t="inlineStr">
         <is>
-          <t>StatusCode</t>
+          <t>DiagnosisCode</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1257,9 +1247,19 @@
           <t>str, Enum</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Se webservice dokumentation.</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enums/Udfald: | "ja" | "nej" | </t>
+          <t xml:space="preserve">Enums/Udfald: | "alzheimer_sygdom" | "lewy_body_sygdom" | "parkinson_sygdom" | "cerebrovaskulaer_sygdom" | "mixed_alzheimer_cerebrovaskulaer" | "frontotemporal_demens" | "atypisk_parkinson_msa_cbs_psp" | "normaltryks_hydrocephalus_nph" | "huntingtons_sygdom" | "alkohol" | "anden_specifik_neurodegenerativ_sygdom" | "anden_ikke_neurodegenerativ_sygdom" | "psykiatrisk_sygdom" | "uafklaret_aetiologi" | "ikke_relevant" | </t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
     </row>
